--- a/pred_ohlcv/54_23/2019-10-05 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-05 LAMB ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -415,10 +415,10 @@
         <v>67.7</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -438,10 +438,10 @@
         <v>67.90000000000001</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -484,7 +484,7 @@
         <v>68.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -507,7 +507,7 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
@@ -530,7 +530,7 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -553,7 +553,7 @@
         <v>68.40000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -599,7 +599,7 @@
         <v>68.40000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -691,7 +691,7 @@
         <v>68.2</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -714,7 +714,7 @@
         <v>68.40000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -921,10 +921,10 @@
         <v>68.2</v>
       </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>2</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -944,10 +944,10 @@
         <v>68</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>2</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -967,10 +967,10 @@
         <v>68</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>2</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -990,10 +990,10 @@
         <v>68</v>
       </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>2</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1013,10 +1013,10 @@
         <v>68</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>2</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1036,10 +1036,10 @@
         <v>68</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>2</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1059,10 +1059,10 @@
         <v>68</v>
       </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>2</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1082,10 +1082,10 @@
         <v>68.2</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>2</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1105,10 +1105,10 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>2</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1128,10 +1128,10 @@
         <v>68</v>
       </c>
       <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
         <v>2</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1151,10 +1151,10 @@
         <v>68</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>2</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1174,10 +1174,10 @@
         <v>68</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>2</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1197,10 +1197,10 @@
         <v>67.90000000000001</v>
       </c>
       <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>2</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1220,10 +1220,10 @@
         <v>68</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>2</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1243,10 +1243,10 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1266,7 +1266,7 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -1289,7 +1289,7 @@
         <v>67.90000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -1312,7 +1312,7 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -1335,7 +1335,7 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -1358,7 +1358,7 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -1381,7 +1381,7 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -1404,7 +1404,7 @@
         <v>68</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -1427,7 +1427,7 @@
         <v>68</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -1496,7 +1496,7 @@
         <v>68</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -1519,7 +1519,7 @@
         <v>67.8</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -1565,10 +1565,10 @@
         <v>67.40000000000001</v>
       </c>
       <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
         <v>2</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1588,10 +1588,10 @@
         <v>67.2</v>
       </c>
       <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
         <v>2</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1611,10 +1611,10 @@
         <v>67.2</v>
       </c>
       <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
         <v>2</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1634,10 +1634,10 @@
         <v>67.40000000000001</v>
       </c>
       <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
         <v>2</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1657,10 +1657,10 @@
         <v>67.40000000000001</v>
       </c>
       <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
         <v>2</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1680,10 +1680,10 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
         <v>2</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1703,10 +1703,10 @@
         <v>67</v>
       </c>
       <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
         <v>2</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1726,10 +1726,10 @@
         <v>67.09999999999999</v>
       </c>
       <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
         <v>2</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1749,10 +1749,10 @@
         <v>67.2</v>
       </c>
       <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
         <v>2</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -3290,7 +3290,7 @@
         <v>63.4</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -3313,7 +3313,7 @@
         <v>63.7</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -3359,10 +3359,10 @@
         <v>63.8</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3382,10 +3382,10 @@
         <v>63.8</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -3566,7 +3566,7 @@
         <v>63.8</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -3612,7 +3612,7 @@
         <v>63.8</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -3658,7 +3658,7 @@
         <v>63.8</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -3681,7 +3681,7 @@
         <v>63.8</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>64</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="G265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -6648,10 +6648,10 @@
         <v>63</v>
       </c>
       <c r="F273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="G299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -7272,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -7594,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -8560,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -8606,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -8675,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -8744,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -8767,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -9063,7 +9063,7 @@
         <v>57.8</v>
       </c>
       <c r="F378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>57.5</v>
       </c>
       <c r="F379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -9109,7 +9109,7 @@
         <v>57.9</v>
       </c>
       <c r="F380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -9132,7 +9132,7 @@
         <v>57.9</v>
       </c>
       <c r="F381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -9155,7 +9155,7 @@
         <v>57.9</v>
       </c>
       <c r="F382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -9178,7 +9178,7 @@
         <v>57.8</v>
       </c>
       <c r="F383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -9201,7 +9201,7 @@
         <v>57.7</v>
       </c>
       <c r="F384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -9224,7 +9224,7 @@
         <v>57.6</v>
       </c>
       <c r="F385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -9247,7 +9247,7 @@
         <v>57.1</v>
       </c>
       <c r="F386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -9270,7 +9270,7 @@
         <v>57</v>
       </c>
       <c r="F387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -9316,7 +9316,7 @@
         <v>57.4</v>
       </c>
       <c r="F389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -9339,7 +9339,7 @@
         <v>57.7</v>
       </c>
       <c r="F390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -9362,7 +9362,7 @@
         <v>57.8</v>
       </c>
       <c r="F391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -9385,7 +9385,7 @@
         <v>57.9</v>
       </c>
       <c r="F392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="G397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -9549,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="G399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -9572,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="G400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -9595,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="G401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="G402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="G403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="G404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="G405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -9710,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="G406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="G407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="G408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="G409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="G410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="G411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="G412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="G413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -9894,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="G414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -9917,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="G415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -9940,7 +9940,7 @@
         <v>0</v>
       </c>
       <c r="G416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="G417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -9986,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="G418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -10009,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="G419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="G420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="G421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -10078,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="G422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -10101,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="G423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="G424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -10147,10 +10147,10 @@
         <v>0</v>
       </c>
       <c r="G425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>